--- a/epitweetr/inst/extdata/geo-training.xlsx
+++ b/epitweetr/inst/extdata/geo-training.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Location in text</t>
   </si>
   <si>
-    <t xml:space="preserve">Location OK/KO</t>
+    <t xml:space="preserve">Location yes/no</t>
   </si>
   <si>
     <t xml:space="preserve">Associate country code</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Kenyan</t>
   </si>
   <si>
-    <t xml:space="preserve">KO</t>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya</t>
@@ -8687,16 +8687,16 @@
   <dimension ref="A1:M2637"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.48"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
